--- a/Code/Results/Cases/Case_2_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_108/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.34117324635629</v>
+        <v>16.43775051914092</v>
       </c>
       <c r="C2">
-        <v>11.1078471736068</v>
+        <v>11.19696365860557</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.15105953739171</v>
+        <v>15.81573047652792</v>
       </c>
       <c r="F2">
-        <v>26.81393774289965</v>
+        <v>38.38584959282824</v>
       </c>
       <c r="G2">
-        <v>2.086402737328951</v>
+        <v>3.653661470515581</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.337180906978209</v>
+        <v>8.045255017942342</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.647173420344989</v>
+        <v>12.34078765958234</v>
       </c>
       <c r="M2">
-        <v>12.79277302931912</v>
+        <v>16.99452758298961</v>
       </c>
       <c r="N2">
-        <v>12.5497943822324</v>
+        <v>18.92523607500412</v>
       </c>
       <c r="O2">
-        <v>16.62690933752235</v>
+        <v>24.89179599123506</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.02539334862685</v>
+        <v>16.05685461848186</v>
       </c>
       <c r="C3">
-        <v>10.7649404548793</v>
+        <v>11.08167308098274</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.188060195347878</v>
+        <v>15.84848484082278</v>
       </c>
       <c r="F3">
-        <v>26.28346070065921</v>
+        <v>38.42198615855883</v>
       </c>
       <c r="G3">
-        <v>2.091876152479487</v>
+        <v>3.655765374260229</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.326646504812622</v>
+        <v>8.04355074766204</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.506237343292856</v>
+        <v>12.3393455301605</v>
       </c>
       <c r="M3">
-        <v>12.24904272938109</v>
+        <v>16.91562405843424</v>
       </c>
       <c r="N3">
-        <v>12.73449464301513</v>
+        <v>18.98375408561752</v>
       </c>
       <c r="O3">
-        <v>16.45562752884007</v>
+        <v>24.95110627777614</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.2199771743326</v>
+        <v>15.82103685662449</v>
       </c>
       <c r="C4">
-        <v>10.54848674961342</v>
+        <v>11.00956860142087</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.213863108178739</v>
+        <v>15.87010679756442</v>
       </c>
       <c r="F4">
-        <v>25.97466935310869</v>
+        <v>38.45306125204628</v>
       </c>
       <c r="G4">
-        <v>2.095342390006932</v>
+        <v>3.657126323112413</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.320376145896125</v>
+        <v>8.042618807117867</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.421016460073135</v>
+        <v>12.33985639173106</v>
       </c>
       <c r="M4">
-        <v>11.90694291791348</v>
+        <v>16.86937108954217</v>
       </c>
       <c r="N4">
-        <v>12.85107898454689</v>
+        <v>19.02152684281691</v>
       </c>
       <c r="O4">
-        <v>16.36533699738341</v>
+        <v>24.99330753928308</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.88408026541496</v>
+        <v>15.7245895945912</v>
       </c>
       <c r="C5">
-        <v>10.45887034141194</v>
+        <v>10.97987005328089</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.225140806816336</v>
+        <v>15.8792984263064</v>
       </c>
       <c r="F5">
-        <v>25.85314940159643</v>
+        <v>38.46795725852268</v>
       </c>
       <c r="G5">
-        <v>2.096782080110575</v>
+        <v>3.657698362647787</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.317872072953535</v>
+        <v>8.042268027620802</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.386653636984472</v>
+        <v>12.34041699036301</v>
       </c>
       <c r="M5">
-        <v>11.7656536441474</v>
+        <v>16.85108789673904</v>
       </c>
       <c r="N5">
-        <v>12.89939703253648</v>
+        <v>19.03738405197098</v>
       </c>
       <c r="O5">
-        <v>16.33219166281101</v>
+        <v>25.01195582438472</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.82770527568857</v>
+        <v>15.70855767230491</v>
       </c>
       <c r="C6">
-        <v>10.44390682803714</v>
+        <v>10.97492003812748</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.227059165658947</v>
+        <v>15.88084768974583</v>
       </c>
       <c r="F6">
-        <v>25.83323318579177</v>
+        <v>38.47056549694156</v>
       </c>
       <c r="G6">
-        <v>2.097022798519312</v>
+        <v>3.657794404443713</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.317459402272734</v>
+        <v>8.042211538078945</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.380970800123378</v>
+        <v>12.34053139866096</v>
       </c>
       <c r="M6">
-        <v>11.74208520275952</v>
+        <v>16.84808650992975</v>
       </c>
       <c r="N6">
-        <v>12.90746936142981</v>
+        <v>19.04004521988999</v>
       </c>
       <c r="O6">
-        <v>16.32690539895706</v>
+        <v>25.01513987837771</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.21548742423488</v>
+        <v>15.81973736212353</v>
       </c>
       <c r="C7">
-        <v>10.54728375357701</v>
+        <v>11.00916933287228</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.214012131177473</v>
+        <v>15.87022921757041</v>
       </c>
       <c r="F7">
-        <v>25.9730129527424</v>
+        <v>38.45325310832485</v>
       </c>
       <c r="G7">
-        <v>2.095361695343971</v>
+        <v>3.657133967143163</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.320342166195395</v>
+        <v>8.042613958722017</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.420551505646773</v>
+        <v>12.33986252358235</v>
       </c>
       <c r="M7">
-        <v>11.90504478328657</v>
+        <v>16.8691222098766</v>
       </c>
       <c r="N7">
-        <v>12.85172732982338</v>
+        <v>19.02173881633207</v>
       </c>
       <c r="O7">
-        <v>16.36487534290589</v>
+        <v>24.99355316687283</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.89732065816656</v>
+        <v>16.30690367560334</v>
       </c>
       <c r="C8">
-        <v>10.99088200545991</v>
+        <v>11.15749370466731</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.163169381732391</v>
+        <v>15.82671103342965</v>
       </c>
       <c r="F8">
-        <v>26.62755630496013</v>
+        <v>38.39646398106763</v>
       </c>
       <c r="G8">
-        <v>2.08826845591919</v>
+        <v>3.654372579050091</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.333508463393811</v>
+        <v>8.044643745904985</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.598326743847982</v>
+        <v>12.3400014081068</v>
       </c>
       <c r="M8">
-        <v>12.60711461142714</v>
+        <v>16.96687457461605</v>
       </c>
       <c r="N8">
-        <v>12.61282547635146</v>
+        <v>18.94503140574794</v>
       </c>
       <c r="O8">
-        <v>16.56471115369891</v>
+        <v>24.91104350664853</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.91995426937433</v>
+        <v>17.24094939588184</v>
       </c>
       <c r="C9">
-        <v>11.81099522296528</v>
+        <v>11.4372557040078</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.088536139791922</v>
+        <v>15.75332962579535</v>
       </c>
       <c r="F9">
-        <v>28.04225400972734</v>
+        <v>38.35567261449398</v>
       </c>
       <c r="G9">
-        <v>2.075165866260247</v>
+        <v>3.649503612430664</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.360830606870683</v>
+        <v>8.049523880070227</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.955858700677518</v>
+        <v>12.35129349869057</v>
       </c>
       <c r="M9">
-        <v>13.91121298364449</v>
+        <v>17.17535377823447</v>
       </c>
       <c r="N9">
-        <v>12.16910603421573</v>
+        <v>18.80917245890345</v>
       </c>
       <c r="O9">
-        <v>17.07825901087722</v>
+        <v>24.79529073802977</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.9170740068871</v>
+        <v>17.90686331029642</v>
       </c>
       <c r="C10">
-        <v>12.37988102151433</v>
+        <v>11.63516469556863</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.049842639600691</v>
+        <v>15.70666675035853</v>
       </c>
       <c r="F10">
-        <v>29.15694552839862</v>
+        <v>38.36874986560609</v>
       </c>
       <c r="G10">
-        <v>2.065986938587046</v>
+        <v>3.646255785185396</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.38172344547107</v>
+        <v>8.05364659930077</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.222009256827487</v>
+        <v>12.36622408989316</v>
       </c>
       <c r="M10">
-        <v>14.81703488872302</v>
+        <v>17.3378870565553</v>
       </c>
       <c r="N10">
-        <v>11.85759549916067</v>
+        <v>18.71815816259714</v>
       </c>
       <c r="O10">
-        <v>17.53402953278489</v>
+        <v>24.73850857102893</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.77808815827694</v>
+        <v>18.20398318627533</v>
       </c>
       <c r="C11">
-        <v>12.63083786865342</v>
+        <v>11.72336449800891</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.035941027177689</v>
+        <v>15.68700466291326</v>
       </c>
       <c r="F11">
-        <v>29.67937156947434</v>
+        <v>38.3840306296927</v>
       </c>
       <c r="G11">
-        <v>2.061897863108688</v>
+        <v>3.644849042785489</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.39138244286449</v>
+        <v>8.055636408728466</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.343453580146061</v>
+        <v>12.37443722320342</v>
       </c>
       <c r="M11">
-        <v>15.21650303885768</v>
+        <v>17.4136647489029</v>
       </c>
       <c r="N11">
-        <v>11.71890517671746</v>
+        <v>18.67864822765579</v>
       </c>
       <c r="O11">
-        <v>17.75915041423683</v>
+        <v>24.71884702555958</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.09739017695138</v>
+        <v>18.31555304911257</v>
       </c>
       <c r="C12">
-        <v>12.72470750243018</v>
+        <v>11.75648585938785</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.031226052132411</v>
+        <v>15.67978355746653</v>
       </c>
       <c r="F12">
-        <v>29.87932385052044</v>
+        <v>38.39115575142755</v>
       </c>
       <c r="G12">
-        <v>2.060360943520936</v>
+        <v>3.644326457375307</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.395060072166259</v>
+        <v>8.056406128544596</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.389464751476659</v>
+        <v>12.3777498078387</v>
       </c>
       <c r="M12">
-        <v>15.3658805394712</v>
+        <v>17.44260718592488</v>
       </c>
       <c r="N12">
-        <v>11.66681196805054</v>
+        <v>18.66395785489755</v>
       </c>
       <c r="O12">
-        <v>17.84700572009835</v>
+        <v>24.71229088751926</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.02892141527904</v>
+        <v>18.29156805320313</v>
       </c>
       <c r="C13">
-        <v>12.7045431850457</v>
+        <v>11.74936517695057</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.032216796144011</v>
+        <v>15.68132877587284</v>
       </c>
       <c r="F13">
-        <v>29.83616751288488</v>
+        <v>38.38956175700444</v>
       </c>
       <c r="G13">
-        <v>2.060691449241771</v>
+        <v>3.644438556321637</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.394267178680537</v>
+        <v>8.056239637698557</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.379554867195145</v>
+        <v>12.37702741095437</v>
       </c>
       <c r="M13">
-        <v>15.33379469997129</v>
+        <v>17.43636320966365</v>
       </c>
       <c r="N13">
-        <v>11.67801235492729</v>
+        <v>18.6671096446213</v>
       </c>
       <c r="O13">
-        <v>17.82796783967643</v>
+        <v>24.71366328861701</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.80449202623794</v>
+        <v>18.21318159371285</v>
       </c>
       <c r="C14">
-        <v>12.63858405381824</v>
+        <v>11.72609506713582</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.035542014206339</v>
+        <v>15.68640608208676</v>
       </c>
       <c r="F14">
-        <v>29.69577972511403</v>
+        <v>38.38459001232393</v>
       </c>
       <c r="G14">
-        <v>2.061771194269709</v>
+        <v>3.644805846890272</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.391684616983298</v>
+        <v>8.055699410210245</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.34723865550532</v>
+        <v>12.3747057054426</v>
       </c>
       <c r="M14">
-        <v>15.22883074716997</v>
+        <v>17.41604101100664</v>
       </c>
       <c r="N14">
-        <v>11.71461094676907</v>
+        <v>18.67743421271696</v>
       </c>
       <c r="O14">
-        <v>17.7663258146959</v>
+        <v>24.71828981496688</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.66614662555508</v>
+        <v>18.16504175736792</v>
       </c>
       <c r="C15">
-        <v>12.59802987534956</v>
+        <v>11.71180481743044</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.037650859248405</v>
+        <v>15.68954529880756</v>
       </c>
       <c r="F15">
-        <v>29.6100619218383</v>
+        <v>38.38171888800836</v>
       </c>
       <c r="G15">
-        <v>2.062434042071631</v>
+        <v>3.645032139057011</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.390105254201101</v>
+        <v>8.055370611222303</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.327446151846694</v>
+        <v>12.37330990027633</v>
       </c>
       <c r="M15">
-        <v>15.16428872817781</v>
+        <v>17.40362472504333</v>
       </c>
       <c r="N15">
-        <v>11.73708386716856</v>
+        <v>18.68379359482313</v>
       </c>
       <c r="O15">
-        <v>17.72890915485453</v>
+        <v>24.72123956185533</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.85985619156575</v>
+        <v>17.88731955733273</v>
       </c>
       <c r="C16">
-        <v>12.36331954989074</v>
+        <v>11.62936252876882</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.050827052001944</v>
+        <v>15.70798315989806</v>
       </c>
       <c r="F16">
-        <v>29.1231050753463</v>
+        <v>38.36793875693838</v>
       </c>
       <c r="G16">
-        <v>2.066255832878607</v>
+        <v>3.64634913764413</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.381095130820461</v>
+        <v>8.053518842830702</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.21407739014672</v>
+        <v>12.36571577840416</v>
       </c>
       <c r="M16">
-        <v>14.79066791807111</v>
+        <v>17.33297034628227</v>
       </c>
       <c r="N16">
-        <v>11.86671924631964</v>
+        <v>18.72077823277077</v>
       </c>
       <c r="O16">
-        <v>17.5196796135948</v>
+        <v>24.7399178293778</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.35311888495161</v>
+        <v>17.71537917980374</v>
       </c>
       <c r="C17">
-        <v>12.217298376581</v>
+        <v>11.57830745868844</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.059869925431489</v>
+        <v>15.71969464991286</v>
       </c>
       <c r="F17">
-        <v>28.82824039634087</v>
+        <v>38.36187321651312</v>
       </c>
       <c r="G17">
-        <v>2.068621895908552</v>
+        <v>3.647175148089675</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.375605784167626</v>
+        <v>8.052411976019977</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.144601934096885</v>
+        <v>12.36141969209386</v>
       </c>
       <c r="M17">
-        <v>14.55817439120421</v>
+        <v>17.29008517146414</v>
       </c>
       <c r="N17">
-        <v>11.94701318434483</v>
+        <v>18.74395120308097</v>
       </c>
       <c r="O17">
-        <v>17.39591676575476</v>
+        <v>24.7529580316816</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.05718224051206</v>
+        <v>17.61594290705834</v>
       </c>
       <c r="C18">
-        <v>12.1325753360833</v>
+        <v>11.54877054700974</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.065418360783195</v>
+        <v>15.72657813598448</v>
       </c>
       <c r="F18">
-        <v>28.66009144708588</v>
+        <v>38.35926310195404</v>
       </c>
       <c r="G18">
-        <v>2.069990989204634</v>
+        <v>3.647656906061414</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.372463168999868</v>
+        <v>8.051786113421212</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.104678109870326</v>
+        <v>12.35908258129619</v>
       </c>
       <c r="M18">
-        <v>14.42326847977655</v>
+        <v>17.26559306688766</v>
       </c>
       <c r="N18">
-        <v>11.99348058664881</v>
+        <v>18.75745791335547</v>
       </c>
       <c r="O18">
-        <v>17.32640348278719</v>
+        <v>24.76103895650179</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.95621216295142</v>
+        <v>17.58218604450215</v>
       </c>
       <c r="C19">
-        <v>12.10376446248258</v>
+        <v>11.53874087963166</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.067356088928367</v>
+        <v>15.72893409005903</v>
       </c>
       <c r="F19">
-        <v>28.60341076907558</v>
+        <v>38.35853034866994</v>
       </c>
       <c r="G19">
-        <v>2.070455975113433</v>
+        <v>3.647821166207098</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.371401726580792</v>
+        <v>8.051576064989769</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.091167846226991</v>
+        <v>12.35831432695419</v>
       </c>
       <c r="M19">
-        <v>14.37739144800777</v>
+        <v>17.25733092949123</v>
       </c>
       <c r="N19">
-        <v>12.00926276450543</v>
+        <v>18.76206169602189</v>
       </c>
       <c r="O19">
-        <v>17.30315303597851</v>
+        <v>24.76387465521159</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.40752446545036</v>
+        <v>17.73373929549464</v>
       </c>
       <c r="C20">
-        <v>12.23291898808314</v>
+        <v>11.58376020468456</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.058871238829875</v>
+        <v>15.71843269602012</v>
       </c>
       <c r="F20">
-        <v>28.85947988107851</v>
+        <v>38.36242798966246</v>
       </c>
       <c r="G20">
-        <v>2.068369182549694</v>
+        <v>3.647086529094258</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.37618862775708</v>
+        <v>8.052528690014782</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.15199415341946</v>
+        <v>12.36186317477618</v>
       </c>
       <c r="M20">
-        <v>14.58304667828315</v>
+        <v>17.29463245696236</v>
       </c>
       <c r="N20">
-        <v>11.93843637884305</v>
+        <v>18.74146596205449</v>
       </c>
       <c r="O20">
-        <v>17.40891813212435</v>
+        <v>24.75150977856079</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.8705947656203</v>
+        <v>18.23623200851768</v>
       </c>
       <c r="C21">
-        <v>12.65798964393573</v>
+        <v>11.73293772314843</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.034550269563466</v>
+        <v>15.68490866573519</v>
       </c>
       <c r="F21">
-        <v>29.73695811067499</v>
+        <v>38.38601403583836</v>
       </c>
       <c r="G21">
-        <v>2.061453741764013</v>
+        <v>3.644697690564981</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.392442654865148</v>
+        <v>8.055857649642112</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.356730321789897</v>
+        <v>12.37538216792931</v>
       </c>
       <c r="M21">
-        <v>15.25971312682306</v>
+        <v>17.42200356994048</v>
       </c>
       <c r="N21">
-        <v>11.70384955740223</v>
+        <v>18.67439428500832</v>
       </c>
       <c r="O21">
-        <v>17.78436045631597</v>
+        <v>24.71690674236307</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.78751982539738</v>
+        <v>18.55909930010667</v>
       </c>
       <c r="C22">
-        <v>12.92901170429082</v>
+        <v>11.82880694492969</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.021865161646096</v>
+        <v>15.66430707646093</v>
       </c>
       <c r="F22">
-        <v>30.32276898109056</v>
+        <v>38.40922913509023</v>
       </c>
       <c r="G22">
-        <v>2.057000807420423</v>
+        <v>3.643195395245333</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.403180845647897</v>
+        <v>8.058127767484951</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.49065796604364</v>
+        <v>12.38539668348231</v>
       </c>
       <c r="M22">
-        <v>15.69089743835921</v>
+        <v>17.5066796661488</v>
       </c>
       <c r="N22">
-        <v>11.5530122959177</v>
+        <v>18.63213926511417</v>
       </c>
       <c r="O22">
-        <v>18.04494827192391</v>
+        <v>24.69947568209303</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.30170504580148</v>
+        <v>18.38731945986049</v>
       </c>
       <c r="C23">
-        <v>12.78499306938132</v>
+        <v>11.77779338924345</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.028335848620353</v>
+        <v>15.6751830063021</v>
       </c>
       <c r="F23">
-        <v>30.00900903202822</v>
+        <v>38.39612644234022</v>
       </c>
       <c r="G23">
-        <v>2.059371635641807</v>
+        <v>3.643991821355734</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.397439928009106</v>
+        <v>8.056907594913296</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.419176671183289</v>
+        <v>12.37994451969817</v>
       </c>
       <c r="M23">
-        <v>15.46180038981327</v>
+        <v>17.46136133938484</v>
       </c>
       <c r="N23">
-        <v>11.6332926260703</v>
+        <v>18.65454730758062</v>
       </c>
       <c r="O23">
-        <v>17.90446059227888</v>
+        <v>24.70830401464396</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.38294205732966</v>
+        <v>17.72544050245827</v>
       </c>
       <c r="C24">
-        <v>12.22585931615518</v>
+        <v>11.58129559233375</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.059321657509763</v>
+        <v>15.71900275687837</v>
       </c>
       <c r="F24">
-        <v>28.84535222778496</v>
+        <v>38.36217444453769</v>
       </c>
       <c r="G24">
-        <v>2.068483406743274</v>
+        <v>3.647126572327708</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.375925082625878</v>
+        <v>8.052475890918922</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.148652070968069</v>
+        <v>12.36166226256296</v>
       </c>
       <c r="M24">
-        <v>14.57180578037986</v>
+        <v>17.29257611963686</v>
       </c>
       <c r="N24">
-        <v>11.94231300089703</v>
+        <v>18.7425889654664</v>
       </c>
       <c r="O24">
-        <v>17.40303511106973</v>
+        <v>24.75216271500284</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.1418562821579</v>
+        <v>16.99133158185014</v>
       </c>
       <c r="C25">
-        <v>11.59483404124083</v>
+        <v>11.36285158976663</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.105956298326445</v>
+        <v>15.77190516067991</v>
       </c>
       <c r="F25">
-        <v>27.6459612941879</v>
+        <v>38.35914601428431</v>
       </c>
       <c r="G25">
-        <v>2.078628488659393</v>
+        <v>3.650762697642334</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.353287849862442</v>
+        <v>8.048108503555207</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.858389391153151</v>
+        <v>12.34706718153707</v>
       </c>
       <c r="M25">
-        <v>13.56711031663546</v>
+        <v>17.11724509390014</v>
       </c>
       <c r="N25">
-        <v>12.2865565827538</v>
+        <v>18.84437479065066</v>
       </c>
       <c r="O25">
-        <v>16.92582618617029</v>
+        <v>24.82165423272212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_108/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.43775051914092</v>
+        <v>19.34117324635628</v>
       </c>
       <c r="C2">
-        <v>11.19696365860557</v>
+        <v>11.10784717360704</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.81573047652792</v>
+        <v>9.151059537391772</v>
       </c>
       <c r="F2">
-        <v>38.38584959282824</v>
+        <v>26.81393774289961</v>
       </c>
       <c r="G2">
-        <v>3.653661470515581</v>
+        <v>2.086402737328952</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.045255017942342</v>
+        <v>5.337180906978308</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.34078765958234</v>
+        <v>7.647173420344967</v>
       </c>
       <c r="M2">
-        <v>16.99452758298961</v>
+        <v>12.79277302931911</v>
       </c>
       <c r="N2">
-        <v>18.92523607500412</v>
+        <v>12.54979438223251</v>
       </c>
       <c r="O2">
-        <v>24.89179599123506</v>
+        <v>16.62690933752233</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.05685461848186</v>
+        <v>18.02539334862688</v>
       </c>
       <c r="C3">
-        <v>11.08167308098274</v>
+        <v>10.76494045487918</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.84848484082278</v>
+        <v>9.188060195347688</v>
       </c>
       <c r="F3">
-        <v>38.42198615855883</v>
+        <v>26.28346070065909</v>
       </c>
       <c r="G3">
-        <v>3.655765374260229</v>
+        <v>2.091876152479354</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.04355074766204</v>
+        <v>5.326646504812526</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.3393455301605</v>
+        <v>7.506237343292763</v>
       </c>
       <c r="M3">
-        <v>16.91562405843424</v>
+        <v>12.24904272938103</v>
       </c>
       <c r="N3">
-        <v>18.98375408561752</v>
+        <v>12.7344946430151</v>
       </c>
       <c r="O3">
-        <v>24.95110627777614</v>
+        <v>16.45562752883997</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.82103685662449</v>
+        <v>17.21997717433259</v>
       </c>
       <c r="C4">
-        <v>11.00956860142087</v>
+        <v>10.54848674961343</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.87010679756442</v>
+        <v>9.213863108178867</v>
       </c>
       <c r="F4">
-        <v>38.45306125204628</v>
+        <v>25.97466935310872</v>
       </c>
       <c r="G4">
-        <v>3.657126323112413</v>
+        <v>2.095342390006934</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.042618807117867</v>
+        <v>5.320376145896093</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.33985639173106</v>
+        <v>7.42101646007319</v>
       </c>
       <c r="M4">
-        <v>16.86937108954217</v>
+        <v>11.90694291791349</v>
       </c>
       <c r="N4">
-        <v>19.02152684281691</v>
+        <v>12.85107898454689</v>
       </c>
       <c r="O4">
-        <v>24.99330753928308</v>
+        <v>16.36533699738339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.7245895945912</v>
+        <v>16.88408026541496</v>
       </c>
       <c r="C5">
-        <v>10.97987005328089</v>
+        <v>10.45887034141182</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.8792984263064</v>
+        <v>9.225140806816334</v>
       </c>
       <c r="F5">
-        <v>38.46795725852268</v>
+        <v>25.85314940159644</v>
       </c>
       <c r="G5">
-        <v>3.657698362647787</v>
+        <v>2.096782080110575</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.042268027620802</v>
+        <v>5.317872072953536</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.34041699036301</v>
+        <v>7.386653636984521</v>
       </c>
       <c r="M5">
-        <v>16.85108789673904</v>
+        <v>11.76565364414741</v>
       </c>
       <c r="N5">
-        <v>19.03738405197098</v>
+        <v>12.89939703253645</v>
       </c>
       <c r="O5">
-        <v>25.01195582438472</v>
+        <v>16.33219166281101</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.70855767230491</v>
+        <v>16.82770527568856</v>
       </c>
       <c r="C6">
-        <v>10.97492003812748</v>
+        <v>10.44390682803704</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.88084768974583</v>
+        <v>9.227059165658941</v>
       </c>
       <c r="F6">
-        <v>38.47056549694156</v>
+        <v>25.83323318579198</v>
       </c>
       <c r="G6">
-        <v>3.657794404443713</v>
+        <v>2.097022798519446</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.042211538078945</v>
+        <v>5.317459402272803</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.34053139866096</v>
+        <v>7.380970800123378</v>
       </c>
       <c r="M6">
-        <v>16.84808650992975</v>
+        <v>11.74208520275956</v>
       </c>
       <c r="N6">
-        <v>19.04004521988999</v>
+        <v>12.90746936142991</v>
       </c>
       <c r="O6">
-        <v>25.01513987837771</v>
+        <v>16.32690539895727</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.81973736212353</v>
+        <v>17.2154874242349</v>
       </c>
       <c r="C7">
-        <v>11.00916933287228</v>
+        <v>10.54728375357699</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.87022921757041</v>
+        <v>9.21401213117729</v>
       </c>
       <c r="F7">
-        <v>38.45325310832485</v>
+        <v>25.97301295274238</v>
       </c>
       <c r="G7">
-        <v>3.657133967143163</v>
+        <v>2.09536169534424</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.042613958722017</v>
+        <v>5.320342166195361</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.33986252358235</v>
+        <v>7.420551505646624</v>
       </c>
       <c r="M7">
-        <v>16.8691222098766</v>
+        <v>11.90504478328655</v>
       </c>
       <c r="N7">
-        <v>19.02173881633207</v>
+        <v>12.85172732982338</v>
       </c>
       <c r="O7">
-        <v>24.99355316687283</v>
+        <v>16.36487534290596</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.30690367560334</v>
+        <v>18.89732065816654</v>
       </c>
       <c r="C8">
-        <v>11.15749370466731</v>
+        <v>10.9908820054598</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.82671103342965</v>
+        <v>9.163169381732395</v>
       </c>
       <c r="F8">
-        <v>38.39646398106763</v>
+        <v>26.62755630496008</v>
       </c>
       <c r="G8">
-        <v>3.654372579050091</v>
+        <v>2.088268455919057</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.044643745904985</v>
+        <v>5.333508463393811</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.3400014081068</v>
+        <v>7.598326743847982</v>
       </c>
       <c r="M8">
-        <v>16.96687457461605</v>
+        <v>12.60711461142713</v>
       </c>
       <c r="N8">
-        <v>18.94503140574794</v>
+        <v>12.61282547635142</v>
       </c>
       <c r="O8">
-        <v>24.91104350664853</v>
+        <v>16.56471115369888</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.24094939588184</v>
+        <v>21.91995426937432</v>
       </c>
       <c r="C9">
-        <v>11.4372557040078</v>
+        <v>11.81099522296519</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.75332962579535</v>
+        <v>9.088536139791744</v>
       </c>
       <c r="F9">
-        <v>38.35567261449398</v>
+        <v>28.04225400972739</v>
       </c>
       <c r="G9">
-        <v>3.649503612430664</v>
+        <v>2.075165866260248</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.049523880070227</v>
+        <v>5.360830606870656</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.35129349869057</v>
+        <v>7.955858700677491</v>
       </c>
       <c r="M9">
-        <v>17.17535377823447</v>
+        <v>13.91121298364448</v>
       </c>
       <c r="N9">
-        <v>18.80917245890345</v>
+        <v>12.1691060342158</v>
       </c>
       <c r="O9">
-        <v>24.79529073802977</v>
+        <v>17.07825901087732</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.90686331029642</v>
+        <v>23.91707400688709</v>
       </c>
       <c r="C10">
-        <v>11.63516469556863</v>
+        <v>12.37988102151433</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.70666675035853</v>
+        <v>9.049842639600691</v>
       </c>
       <c r="F10">
-        <v>38.36874986560609</v>
+        <v>29.15694552839867</v>
       </c>
       <c r="G10">
-        <v>3.646255785185396</v>
+        <v>2.065986938587046</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.05364659930077</v>
+        <v>5.381723445471005</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.36622408989316</v>
+        <v>8.222009256827466</v>
       </c>
       <c r="M10">
-        <v>17.3378870565553</v>
+        <v>14.817034888723</v>
       </c>
       <c r="N10">
-        <v>18.71815816259714</v>
+        <v>11.8575954991607</v>
       </c>
       <c r="O10">
-        <v>24.73850857102893</v>
+        <v>17.53402953278492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.20398318627533</v>
+        <v>24.7780881582769</v>
       </c>
       <c r="C11">
-        <v>11.72336449800891</v>
+        <v>12.63083786865323</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.68700466291326</v>
+        <v>9.035941027177582</v>
       </c>
       <c r="F11">
-        <v>38.3840306296927</v>
+        <v>29.67937156947436</v>
       </c>
       <c r="G11">
-        <v>3.644849042785489</v>
+        <v>2.061897863108423</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.055636408728466</v>
+        <v>5.391382442864523</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.37443722320342</v>
+        <v>8.343453580146051</v>
       </c>
       <c r="M11">
-        <v>17.4136647489029</v>
+        <v>15.21650303885769</v>
       </c>
       <c r="N11">
-        <v>18.67864822765579</v>
+        <v>11.7189051767175</v>
       </c>
       <c r="O11">
-        <v>24.71884702555958</v>
+        <v>17.75915041423691</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.31555304911257</v>
+        <v>25.09739017695134</v>
       </c>
       <c r="C12">
-        <v>11.75648585938785</v>
+        <v>12.72470750243029</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.67978355746653</v>
+        <v>9.031226052132171</v>
       </c>
       <c r="F12">
-        <v>38.39115575142755</v>
+        <v>29.87932385052049</v>
       </c>
       <c r="G12">
-        <v>3.644326457375307</v>
+        <v>2.060360943520938</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.056406128544596</v>
+        <v>5.395060072166221</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.3777498078387</v>
+        <v>8.389464751476595</v>
       </c>
       <c r="M12">
-        <v>17.44260718592488</v>
+        <v>15.36588053947119</v>
       </c>
       <c r="N12">
-        <v>18.66395785489755</v>
+        <v>11.66681196805058</v>
       </c>
       <c r="O12">
-        <v>24.71229088751926</v>
+        <v>17.8470057200984</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.29156805320313</v>
+        <v>25.02892141527905</v>
       </c>
       <c r="C13">
-        <v>11.74936517695057</v>
+        <v>12.70454318504581</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.68132877587284</v>
+        <v>9.03221679614413</v>
       </c>
       <c r="F13">
-        <v>38.38956175700444</v>
+        <v>29.83616751288482</v>
       </c>
       <c r="G13">
-        <v>3.644438556321637</v>
+        <v>2.06069144924177</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.056239637698557</v>
+        <v>5.394267178680639</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.37702741095437</v>
+        <v>8.379554867195161</v>
       </c>
       <c r="M13">
-        <v>17.43636320966365</v>
+        <v>15.33379469997129</v>
       </c>
       <c r="N13">
-        <v>18.6671096446213</v>
+        <v>11.67801235492733</v>
       </c>
       <c r="O13">
-        <v>24.71366328861701</v>
+        <v>17.82796783967639</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.21318159371285</v>
+        <v>24.80449202623795</v>
       </c>
       <c r="C14">
-        <v>11.72609506713582</v>
+        <v>12.63858405381824</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.68640608208676</v>
+        <v>9.035542014206351</v>
       </c>
       <c r="F14">
-        <v>38.38459001232393</v>
+        <v>29.69577972511398</v>
       </c>
       <c r="G14">
-        <v>3.644805846890272</v>
+        <v>2.061771194269712</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.055699410210245</v>
+        <v>5.391684616983202</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.3747057054426</v>
+        <v>8.347238655505317</v>
       </c>
       <c r="M14">
-        <v>17.41604101100664</v>
+        <v>15.22883074716997</v>
       </c>
       <c r="N14">
-        <v>18.67743421271696</v>
+        <v>11.714610946769</v>
       </c>
       <c r="O14">
-        <v>24.71828981496688</v>
+        <v>17.76632581469582</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.16504175736792</v>
+        <v>24.66614662555511</v>
       </c>
       <c r="C15">
-        <v>11.71180481743044</v>
+        <v>12.59802987534976</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.68954529880756</v>
+        <v>9.037650859248412</v>
       </c>
       <c r="F15">
-        <v>38.38171888800836</v>
+        <v>29.61006192183828</v>
       </c>
       <c r="G15">
-        <v>3.645032139057011</v>
+        <v>2.062434042071898</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.055370611222303</v>
+        <v>5.390105254201067</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.37330990027633</v>
+        <v>8.327446151846713</v>
       </c>
       <c r="M15">
-        <v>17.40362472504333</v>
+        <v>15.16428872817781</v>
       </c>
       <c r="N15">
-        <v>18.68379359482313</v>
+        <v>11.73708386716853</v>
       </c>
       <c r="O15">
-        <v>24.72123956185533</v>
+        <v>17.72890915485448</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.88731955733273</v>
+        <v>23.8598561915657</v>
       </c>
       <c r="C16">
-        <v>11.62936252876882</v>
+        <v>12.36331954989065</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.70798315989806</v>
+        <v>9.050827052002001</v>
       </c>
       <c r="F16">
-        <v>38.36793875693838</v>
+        <v>29.12310507534636</v>
       </c>
       <c r="G16">
-        <v>3.64634913764413</v>
+        <v>2.066255832878741</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.053518842830702</v>
+        <v>5.381095130820526</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.36571577840416</v>
+        <v>8.214077390146752</v>
       </c>
       <c r="M16">
-        <v>17.33297034628227</v>
+        <v>14.79066791807113</v>
       </c>
       <c r="N16">
-        <v>18.72077823277077</v>
+        <v>11.8667192463197</v>
       </c>
       <c r="O16">
-        <v>24.7399178293778</v>
+        <v>17.51967961359484</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.71537917980374</v>
+        <v>23.35311888495162</v>
       </c>
       <c r="C17">
-        <v>11.57830745868844</v>
+        <v>12.21729837658088</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.71969464991286</v>
+        <v>9.059869925431437</v>
       </c>
       <c r="F17">
-        <v>38.36187321651312</v>
+        <v>28.82824039634092</v>
       </c>
       <c r="G17">
-        <v>3.647175148089675</v>
+        <v>2.068621895908419</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.052411976019977</v>
+        <v>5.37560578416759</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.36141969209386</v>
+        <v>8.144601934096887</v>
       </c>
       <c r="M17">
-        <v>17.29008517146414</v>
+        <v>14.5581743912042</v>
       </c>
       <c r="N17">
-        <v>18.74395120308097</v>
+        <v>11.94701318434486</v>
       </c>
       <c r="O17">
-        <v>24.7529580316816</v>
+        <v>17.39591676575479</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.61594290705834</v>
+        <v>23.05718224051205</v>
       </c>
       <c r="C18">
-        <v>11.54877054700974</v>
+        <v>12.13257533608329</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.72657813598448</v>
+        <v>9.065418360783253</v>
       </c>
       <c r="F18">
-        <v>38.35926310195404</v>
+        <v>28.66009144708578</v>
       </c>
       <c r="G18">
-        <v>3.647656906061414</v>
+        <v>2.069990989204638</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.051786113421212</v>
+        <v>5.372463168999935</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.35908258129619</v>
+        <v>8.104678109870306</v>
       </c>
       <c r="M18">
-        <v>17.26559306688766</v>
+        <v>14.42326847977654</v>
       </c>
       <c r="N18">
-        <v>18.75745791335547</v>
+        <v>11.99348058664871</v>
       </c>
       <c r="O18">
-        <v>24.76103895650179</v>
+        <v>17.3264034827871</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.58218604450215</v>
+        <v>22.9562121629514</v>
       </c>
       <c r="C19">
-        <v>11.53874087963166</v>
+        <v>12.10376446248278</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.72893409005903</v>
+        <v>9.067356088928374</v>
       </c>
       <c r="F19">
-        <v>38.35853034866994</v>
+        <v>28.60341076907566</v>
       </c>
       <c r="G19">
-        <v>3.647821166207098</v>
+        <v>2.070455975113165</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.051576064989769</v>
+        <v>5.371401726580793</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.35831432695419</v>
+        <v>8.091167846226949</v>
       </c>
       <c r="M19">
-        <v>17.25733092949123</v>
+        <v>14.37739144800775</v>
       </c>
       <c r="N19">
-        <v>18.76206169602189</v>
+        <v>12.00926276450556</v>
       </c>
       <c r="O19">
-        <v>24.76387465521159</v>
+        <v>17.30315303597859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.73373929549464</v>
+        <v>23.40752446545036</v>
       </c>
       <c r="C20">
-        <v>11.58376020468456</v>
+        <v>12.23291898808304</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.71843269602012</v>
+        <v>9.058871238829811</v>
       </c>
       <c r="F20">
-        <v>38.36242798966246</v>
+        <v>28.85947988107852</v>
       </c>
       <c r="G20">
-        <v>3.647086529094258</v>
+        <v>2.068369182549827</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.052528690014782</v>
+        <v>5.376188627757081</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.36186317477618</v>
+        <v>8.15199415341946</v>
       </c>
       <c r="M20">
-        <v>17.29463245696236</v>
+        <v>14.58304667828315</v>
       </c>
       <c r="N20">
-        <v>18.74146596205449</v>
+        <v>11.93843637884305</v>
       </c>
       <c r="O20">
-        <v>24.75150977856079</v>
+        <v>17.40891813212437</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.23623200851768</v>
+        <v>24.87059476562026</v>
       </c>
       <c r="C21">
-        <v>11.73293772314843</v>
+        <v>12.65798964393572</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.68490866573519</v>
+        <v>9.034550269563464</v>
       </c>
       <c r="F21">
-        <v>38.38601403583836</v>
+        <v>29.73695811067498</v>
       </c>
       <c r="G21">
-        <v>3.644697690564981</v>
+        <v>2.061453741763877</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.055857649642112</v>
+        <v>5.392442654865212</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.37538216792931</v>
+        <v>8.356730321789916</v>
       </c>
       <c r="M21">
-        <v>17.42200356994048</v>
+        <v>15.25971312682307</v>
       </c>
       <c r="N21">
-        <v>18.67439428500832</v>
+        <v>11.70384955740223</v>
       </c>
       <c r="O21">
-        <v>24.71690674236307</v>
+        <v>17.78436045631599</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.55909930010667</v>
+        <v>25.78751982539741</v>
       </c>
       <c r="C22">
-        <v>11.82880694492969</v>
+        <v>12.92901170429081</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.66430707646093</v>
+        <v>9.021865161646085</v>
       </c>
       <c r="F22">
-        <v>38.40922913509023</v>
+        <v>30.32276898109053</v>
       </c>
       <c r="G22">
-        <v>3.643195395245333</v>
+        <v>2.05700080742069</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.058127767484951</v>
+        <v>5.403180845647864</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.38539668348231</v>
+        <v>8.490657966043688</v>
       </c>
       <c r="M22">
-        <v>17.5066796661488</v>
+        <v>15.69089743835918</v>
       </c>
       <c r="N22">
-        <v>18.63213926511417</v>
+        <v>11.55301229591769</v>
       </c>
       <c r="O22">
-        <v>24.69947568209303</v>
+        <v>18.04494827192391</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.38731945986049</v>
+        <v>25.3017050458016</v>
       </c>
       <c r="C23">
-        <v>11.77779338924345</v>
+        <v>12.78499306938131</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.6751830063021</v>
+        <v>9.028335848620411</v>
       </c>
       <c r="F23">
-        <v>38.39612644234022</v>
+        <v>30.0090090320282</v>
       </c>
       <c r="G23">
-        <v>3.643991821355734</v>
+        <v>2.059371635641675</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.056907594913296</v>
+        <v>5.397439928009138</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.37994451969817</v>
+        <v>8.41917667118329</v>
       </c>
       <c r="M23">
-        <v>17.46136133938484</v>
+        <v>15.46180038981325</v>
       </c>
       <c r="N23">
-        <v>18.65454730758062</v>
+        <v>11.63329262607033</v>
       </c>
       <c r="O23">
-        <v>24.70830401464396</v>
+        <v>17.90446059227885</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.72544050245827</v>
+        <v>23.38294205732969</v>
       </c>
       <c r="C24">
-        <v>11.58129559233375</v>
+        <v>12.22585931615507</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.71900275687837</v>
+        <v>9.059321657509766</v>
       </c>
       <c r="F24">
-        <v>38.36217444453769</v>
+        <v>28.84535222778496</v>
       </c>
       <c r="G24">
-        <v>3.647126572327708</v>
+        <v>2.068483406743407</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.052475890918922</v>
+        <v>5.375925082625815</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.36166226256296</v>
+        <v>8.148652070968113</v>
       </c>
       <c r="M24">
-        <v>17.29257611963686</v>
+        <v>14.57180578037987</v>
       </c>
       <c r="N24">
-        <v>18.7425889654664</v>
+        <v>11.942313000897</v>
       </c>
       <c r="O24">
-        <v>24.75216271500284</v>
+        <v>17.4030351110697</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.99133158185014</v>
+        <v>21.14185628215787</v>
       </c>
       <c r="C25">
-        <v>11.36285158976663</v>
+        <v>11.59483404124083</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.77190516067991</v>
+        <v>9.105956298326507</v>
       </c>
       <c r="F25">
-        <v>38.35914601428431</v>
+        <v>27.64596129418804</v>
       </c>
       <c r="G25">
-        <v>3.650762697642334</v>
+        <v>2.078628488659526</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.048108503555207</v>
+        <v>5.353287849862446</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.34706718153707</v>
+        <v>7.858389391153158</v>
       </c>
       <c r="M25">
-        <v>17.11724509390014</v>
+        <v>13.56711031663549</v>
       </c>
       <c r="N25">
-        <v>18.84437479065066</v>
+        <v>12.2865565827539</v>
       </c>
       <c r="O25">
-        <v>24.82165423272212</v>
+        <v>16.92582618617041</v>
       </c>
     </row>
   </sheetData>
